--- a/data/news_and_keyword/kosdaq/SGA솔루션즈.xlsx
+++ b/data/news_and_keyword/kosdaq/SGA솔루션즈.xlsx
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>작년 최대 실적 달성… 강세</t>
+          <t>연간 최고 실적에 강세</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['작년', '최대', '실적', '강세']</t>
+          <t>['연간', '최고', '실적에', '강세']</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2007,12 +2007,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>연간 최고 실적에 강세</t>
+          <t>작년 최대 실적 달성… 강세</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['연간', '최고', '실적에', '강세']</t>
+          <t>['작년', '최대', '실적', '강세']</t>
         </is>
       </c>
       <c r="D61" t="n">
